--- a/Documentation/Database.xlsx
+++ b/Documentation/Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15240" windowHeight="8025"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="15000" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="PFA" sheetId="1" r:id="rId1"/>
@@ -395,15 +395,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,8 +709,8 @@
   <dimension ref="A1:XFD153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110:D116"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,32 +724,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
@@ -17659,11 +17659,11 @@
       <c r="XFC53" s="3"/>
       <c r="XFD53" s="3"/>
     </row>
-    <row r="54" spans="1:16384" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:16384" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="9" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Documentation/Database.xlsx
+++ b/Documentation/Database.xlsx
@@ -709,8 +709,8 @@
   <dimension ref="A1:XFD153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
